--- a/boardgames/seafall/captains_log/campaign_0/glory.xlsx
+++ b/boardgames/seafall/captains_log/campaign_0/glory.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\campaign_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/campaign_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{421ED4DE-130C-1E47-B9D0-A1E5A13224AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="17985" windowHeight="7260"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glory" sheetId="1" r:id="rId1"/>
     <sheet name="charts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,7 +654,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -697,7 +698,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -804,10 +804,18 @@
                 <c:pt idx="12">
                   <c:v>23</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35C4-B349-AD1D-3921408572D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -880,10 +888,18 @@
                 <c:pt idx="12">
                   <c:v>26</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35C4-B349-AD1D-3921408572D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -956,10 +972,18 @@
                 <c:pt idx="12">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35C4-B349-AD1D-3921408572D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1032,10 +1056,18 @@
                 <c:pt idx="12">
                   <c:v>14</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-35C4-B349-AD1D-3921408572D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1108,10 +1140,18 @@
                 <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-35C4-B349-AD1D-3921408572D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1158,7 +1198,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1278,7 +1317,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1353,7 +1391,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1421,7 +1458,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1460,7 +1497,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1567,10 +1603,18 @@
                 <c:pt idx="12">
                   <c:v>146</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D72-5B42-9D60-5C81F5281375}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1643,10 +1687,18 @@
                 <c:pt idx="12">
                   <c:v>161</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>183</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D72-5B42-9D60-5C81F5281375}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1719,10 +1771,18 @@
                 <c:pt idx="12">
                   <c:v>156</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D72-5B42-9D60-5C81F5281375}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1795,10 +1855,18 @@
                 <c:pt idx="12">
                   <c:v>161</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>176</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3D72-5B42-9D60-5C81F5281375}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1871,10 +1939,18 @@
                 <c:pt idx="12">
                   <c:v>141</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>151</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3D72-5B42-9D60-5C81F5281375}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1926,7 +2002,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2046,7 +2121,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2121,7 +2195,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2189,7 +2262,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2233,7 +2306,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2340,10 +2412,18 @@
                 <c:pt idx="12">
                   <c:v>-15</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>-16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D43B-1F4D-9EC0-775C3A5B4B28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2416,10 +2496,18 @@
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D43B-1F4D-9EC0-775C3A5B4B28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2492,10 +2580,18 @@
                 <c:pt idx="12">
                   <c:v>-5</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>-16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D43B-1F4D-9EC0-775C3A5B4B28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2568,10 +2664,18 @@
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D43B-1F4D-9EC0-775C3A5B4B28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2644,10 +2748,18 @@
                 <c:pt idx="12">
                   <c:v>-20</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>-32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D43B-1F4D-9EC0-775C3A5B4B28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2694,7 +2806,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2819,7 +2930,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2894,7 +3004,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2962,7 +3071,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3006,7 +3115,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3102,10 +3210,18 @@
                 <c:pt idx="12">
                   <c:v>87</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>79</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-302C-9349-A40A-C605CABE5D1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5511,7 +5627,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5543,7 +5665,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5575,7 +5703,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5607,7 +5741,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5889,16 +6029,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5984,7 +6122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6091,7 +6229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6198,7 +6336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6305,7 +6443,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6412,7 +6550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6519,7 +6657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6626,7 +6764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6733,7 +6871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6840,7 +6978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6947,7 +7085,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7054,7 +7192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7161,7 +7299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7268,7 +7406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7331,48 +7469,155 @@
         <v>-20</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14" si="41">RANK(C14,$C14:$G14)</f>
+        <f t="shared" ref="R14:R15" si="41">RANK(C14,$C14:$G14)</f>
         <v>2</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14" si="42">RANK(D14,$C14:$G14)</f>
+        <f t="shared" ref="S14:S15" si="42">RANK(D14,$C14:$G14)</f>
         <v>1</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T14" si="43">RANK(E14,$C14:$G14)</f>
+        <f t="shared" ref="T14:T15" si="43">RANK(E14,$C14:$G14)</f>
         <v>5</v>
       </c>
       <c r="U14">
-        <f t="shared" ref="U14" si="44">RANK(F14,$C14:$G14)</f>
+        <f t="shared" ref="U14:U15" si="44">RANK(F14,$C14:$G14)</f>
         <v>3</v>
       </c>
       <c r="V14">
-        <f t="shared" ref="V14" si="45">RANK(G14,$C14:$G14)</f>
+        <f t="shared" ref="V14:V15" si="45">RANK(G14,$C14:$G14)</f>
         <v>4</v>
       </c>
       <c r="W14">
-        <f t="shared" ref="W14" si="46">C14/$B14</f>
+        <f t="shared" ref="W14:W15" si="46">C14/$B14</f>
         <v>1</v>
       </c>
       <c r="X14">
-        <f t="shared" ref="X14" si="47">D14/$B14</f>
+        <f t="shared" ref="X14:X15" si="47">D14/$B14</f>
         <v>1.1304347826086956</v>
       </c>
       <c r="Y14">
-        <f t="shared" ref="Y14" si="48">E14/$B14</f>
+        <f t="shared" ref="Y14:Y15" si="48">E14/$B14</f>
         <v>0.47826086956521741</v>
       </c>
       <c r="Z14">
-        <f t="shared" ref="Z14" si="49">F14/$B14</f>
+        <f t="shared" ref="Z14:Z15" si="49">F14/$B14</f>
         <v>0.60869565217391308</v>
       </c>
       <c r="AA14">
-        <f t="shared" ref="AA14" si="50">G14/$B14</f>
+        <f t="shared" ref="AA14:AA15" si="50">G14/$B14</f>
         <v>0.56521739130434778</v>
       </c>
       <c r="AB14">
-        <f t="shared" ref="AB14" si="51">SUM(C14:G14)</f>
+        <f t="shared" ref="AB14:AB15" si="51">SUM(C14:G14)</f>
         <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f>SUM(C$2:C15)</f>
+        <v>167</v>
+      </c>
+      <c r="I15">
+        <f>SUM(D$2:D15)</f>
+        <v>183</v>
+      </c>
+      <c r="J15">
+        <f>SUM(E$2:E15)</f>
+        <v>167</v>
+      </c>
+      <c r="K15">
+        <f>SUM(F$2:F15)</f>
+        <v>176</v>
+      </c>
+      <c r="L15">
+        <f>SUM(G$2:G15)</f>
+        <v>151</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15" si="52">H15-MAX(H15:L15)</f>
+        <v>-16</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15" si="53">I15-MAX(H15:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15" si="54">J15-MAX(H15:L15)</f>
+        <v>-16</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15" si="55">K15-MAX(H15:L15)</f>
+        <v>-7</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15" si="56">L15-MAX(H15:L15)</f>
+        <v>-32</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="46"/>
+        <v>0.875</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="47"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="48"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="49"/>
+        <v>0.625</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="50"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="51"/>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -7381,14 +7626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
